--- a/data/trans_orig/P19E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>158207</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>136966</v>
+        <v>137473</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>179891</v>
+        <v>181114</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2217203875592163</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.191952678450047</v>
+        <v>0.1926623514180953</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2521091213415527</v>
+        <v>0.2538241649706198</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>246</v>
@@ -763,19 +763,19 @@
         <v>272505</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>245536</v>
+        <v>245426</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>302187</v>
+        <v>303043</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2864697365969201</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2581179610102319</v>
+        <v>0.2580021093166754</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.317671802295687</v>
+        <v>0.3185726204623218</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>406</v>
@@ -784,19 +784,19 @@
         <v>430713</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>394062</v>
+        <v>392422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>467808</v>
+        <v>466526</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2587177336191954</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2367025407358215</v>
+        <v>0.2357178498766451</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2809998407180819</v>
+        <v>0.2802301311452705</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>180329</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>159503</v>
+        <v>159007</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>204782</v>
+        <v>204657</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.252723526708221</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2235372581445398</v>
+        <v>0.2228411926061479</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2869932134412127</v>
+        <v>0.2868187203946682</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>267</v>
@@ -834,19 +834,19 @@
         <v>296131</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>267091</v>
+        <v>265179</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>328935</v>
+        <v>326997</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.311306296145009</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2807777086338187</v>
+        <v>0.2787675750111801</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3457904614201145</v>
+        <v>0.3437537637079429</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>447</v>
@@ -855,19 +855,19 @@
         <v>476460</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>437575</v>
+        <v>438144</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>514119</v>
+        <v>518829</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2861973303250376</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2628398480404995</v>
+        <v>0.2631814928534476</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3088176151978658</v>
+        <v>0.3116471692398086</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>217219</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>193025</v>
+        <v>192509</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>240582</v>
+        <v>241985</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3044224410957067</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2705161380093807</v>
+        <v>0.2697931369331606</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3371657046914153</v>
+        <v>0.3391320599924474</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>225</v>
@@ -905,19 +905,19 @@
         <v>247398</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>220980</v>
+        <v>220612</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>276321</v>
+        <v>277391</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.260075384507942</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2323041542249437</v>
+        <v>0.2319169828940931</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2904807509648881</v>
+        <v>0.2916059003135222</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>446</v>
@@ -926,19 +926,19 @@
         <v>464616</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>428641</v>
+        <v>426029</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>503902</v>
+        <v>500854</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2790828288261902</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2574731708265117</v>
+        <v>0.255904257927475</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3026809114872402</v>
+        <v>0.300849975038766</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>45260</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32827</v>
+        <v>33324</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58504</v>
+        <v>58760</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06342977978849967</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04600495874360481</v>
+        <v>0.04670213341610398</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08199115342988285</v>
+        <v>0.08234916352205353</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -976,19 +976,19 @@
         <v>44562</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31557</v>
+        <v>32726</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59703</v>
+        <v>60114</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04684522648965205</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03317421963290319</v>
+        <v>0.03440272185812869</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06276275972482909</v>
+        <v>0.06319478643841415</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -997,19 +997,19 @@
         <v>89822</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72528</v>
+        <v>72580</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110128</v>
+        <v>109576</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05395347667863613</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04356548856026497</v>
+        <v>0.04359693174303934</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06615099345632973</v>
+        <v>0.06581929493982942</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>112528</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>95026</v>
+        <v>94885</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>133753</v>
+        <v>132267</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1577038648483564</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1331747298242185</v>
+        <v>0.1329774113611173</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1874493351185821</v>
+        <v>0.1853660984183997</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>79</v>
@@ -1047,19 +1047,19 @@
         <v>90658</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73727</v>
+        <v>73074</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>111159</v>
+        <v>111367</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09530335626047687</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07750454424970242</v>
+        <v>0.07681905976739857</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1168547265500445</v>
+        <v>0.117073852616545</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>193</v>
@@ -1068,19 +1068,19 @@
         <v>203186</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>177261</v>
+        <v>176511</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>233590</v>
+        <v>231577</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1220486305509407</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1064762389967434</v>
+        <v>0.1060257232965401</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1403114059742832</v>
+        <v>0.1391021282619149</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>717808</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>672251</v>
+        <v>673615</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>762144</v>
+        <v>760840</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3538818333090164</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3314220847468584</v>
+        <v>0.332094801668131</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3757398858677638</v>
+        <v>0.3750970707189861</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>845</v>
@@ -1193,19 +1193,19 @@
         <v>880906</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>837394</v>
+        <v>837902</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>924172</v>
+        <v>922149</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4522883722149079</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4299475271627579</v>
+        <v>0.4302082742869265</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4745026956258909</v>
+        <v>0.4734639665863607</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1519</v>
@@ -1214,19 +1214,19 @@
         <v>1598714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1539870</v>
+        <v>1537514</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1660815</v>
+        <v>1660565</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.402086236202317</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3872865975979773</v>
+        <v>0.3866941705233969</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4177051704532357</v>
+        <v>0.4176420894698397</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>654369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610507</v>
+        <v>615071</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>698865</v>
+        <v>699741</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3226064879327506</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3009822482132458</v>
+        <v>0.3032323434967458</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3445432840364892</v>
+        <v>0.3449751434115206</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>657</v>
@@ -1264,19 +1264,19 @@
         <v>680878</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>639686</v>
+        <v>640082</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>723914</v>
+        <v>727743</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3495870600805899</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3284374534261149</v>
+        <v>0.3286407919545641</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.371682802450096</v>
+        <v>0.3736488684980477</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1282</v>
@@ -1285,19 +1285,19 @@
         <v>1335248</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1277987</v>
+        <v>1279674</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1398118</v>
+        <v>1398277</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3358229101803615</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3214214832112338</v>
+        <v>0.3218458606709442</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3516352657395558</v>
+        <v>0.3516752768566551</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>487065</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>449417</v>
+        <v>450749</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>526310</v>
+        <v>526434</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2401250608838168</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2215642005414942</v>
+        <v>0.2222211970798797</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2594726703369233</v>
+        <v>0.2595339176928831</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>328</v>
@@ -1335,19 +1335,19 @@
         <v>339749</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>306811</v>
+        <v>307337</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>370609</v>
+        <v>376561</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.174438934874775</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1575275788353808</v>
+        <v>0.1577978428499877</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1902837412857213</v>
+        <v>0.1933396262212428</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>783</v>
@@ -1356,19 +1356,19 @@
         <v>826814</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>775632</v>
+        <v>772760</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>880905</v>
+        <v>875325</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2079487388848485</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1950762833880543</v>
+        <v>0.1943539258089716</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2215529385245794</v>
+        <v>0.2201496068428836</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>47087</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35352</v>
+        <v>34640</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61372</v>
+        <v>61786</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02321430962806397</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01742879514266698</v>
+        <v>0.01707769303654787</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03025648914322665</v>
+        <v>0.03046062429443623</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1406,19 +1406,19 @@
         <v>18246</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10574</v>
+        <v>10491</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30927</v>
+        <v>31209</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009367983945784088</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005429169655594306</v>
+        <v>0.005386300877494516</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01587923386477555</v>
+        <v>0.01602371154548131</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -1427,19 +1427,19 @@
         <v>65333</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49257</v>
+        <v>49411</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85673</v>
+        <v>85974</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01643169264751173</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01238839121515036</v>
+        <v>0.01242711244484287</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02154725829184715</v>
+        <v>0.02162294626041431</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>122052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>100976</v>
+        <v>102650</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146432</v>
+        <v>146918</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06017230824635222</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04978150640804661</v>
+        <v>0.05060666419790974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07219137470272326</v>
+        <v>0.0724313705983773</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -1477,19 +1477,19 @@
         <v>27886</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18737</v>
+        <v>18357</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40258</v>
+        <v>40243</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01431764888394311</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009620062519065964</v>
+        <v>0.009424884615156682</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02067005081886253</v>
+        <v>0.02066234748638972</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>135</v>
@@ -1498,19 +1498,19 @@
         <v>149938</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126429</v>
+        <v>126641</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>174584</v>
+        <v>177052</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03771042208496124</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03179778708390557</v>
+        <v>0.03185094435899135</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04390894714464025</v>
+        <v>0.04452967903549337</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>279519</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>256611</v>
+        <v>254316</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>302995</v>
+        <v>302579</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5182886834470078</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4758124417532144</v>
+        <v>0.4715573407615418</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5618183412385034</v>
+        <v>0.5610481908691631</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>319</v>
@@ -1623,19 +1623,19 @@
         <v>334240</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>310831</v>
+        <v>313114</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>356920</v>
+        <v>357390</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.614094576082</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5710851791154999</v>
+        <v>0.5752794266456367</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6557635253261956</v>
+        <v>0.6566279880649439</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>578</v>
@@ -1644,19 +1644,19 @@
         <v>613759</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>581741</v>
+        <v>578492</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>646498</v>
+        <v>646526</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5664113549263561</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5368633010863679</v>
+        <v>0.5338648059980288</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5966249854557916</v>
+        <v>0.5966507518433135</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>151264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>131181</v>
+        <v>128545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>174409</v>
+        <v>175185</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2804771779833335</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2432387512923858</v>
+        <v>0.2383511659175695</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3233923432342009</v>
+        <v>0.3248310532737997</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>146</v>
@@ -1694,19 +1694,19 @@
         <v>152875</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>134494</v>
+        <v>132055</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>176495</v>
+        <v>173217</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2808760002817036</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2471040674632591</v>
+        <v>0.2426225583246151</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3242715003989458</v>
+        <v>0.3182488467959201</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>286</v>
@@ -1715,19 +1715,19 @@
         <v>304140</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>277421</v>
+        <v>272124</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>336398</v>
+        <v>334985</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2806775038079278</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2560202116271098</v>
+        <v>0.2511311854322538</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3104470031871388</v>
+        <v>0.3091427323951657</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>95333</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76047</v>
+        <v>77328</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>115037</v>
+        <v>116050</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1767682850711497</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1410072142553973</v>
+        <v>0.1433820804787983</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2133038767023986</v>
+        <v>0.2151827803082552</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>51</v>
@@ -1765,19 +1765,19 @@
         <v>52117</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>39053</v>
+        <v>40563</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>66302</v>
+        <v>68138</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09575306710422002</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07175123378946691</v>
+        <v>0.07452551641918999</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1218149613113966</v>
+        <v>0.1251890982668542</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>135</v>
@@ -1786,19 +1786,19 @@
         <v>147450</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>126662</v>
+        <v>126388</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>174266</v>
+        <v>172393</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1360748724654787</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1168906992344865</v>
+        <v>0.1166380476241047</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1608223750956572</v>
+        <v>0.159094430455799</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>5249</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1052</v>
+        <v>1512</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12300</v>
+        <v>12186</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009732582525395553</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00195097882112203</v>
+        <v>0.002803807796622571</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02280742429206327</v>
+        <v>0.02259601359914391</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>5249</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1516</v>
+        <v>1051</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12962</v>
+        <v>12656</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004843970158934566</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001398943129563731</v>
+        <v>0.0009697990162054401</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01196209828377062</v>
+        <v>0.01167977078533549</v>
       </c>
     </row>
     <row r="20">
@@ -1878,19 +1878,19 @@
         <v>7946</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3150</v>
+        <v>2957</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16104</v>
+        <v>15659</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01473327097311342</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005840455598109529</v>
+        <v>0.005483226466671448</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02986017045587509</v>
+        <v>0.02903510287287864</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1899,19 +1899,19 @@
         <v>5049</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1973</v>
+        <v>1877</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12130</v>
+        <v>11376</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009276356532076377</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003624763157395072</v>
+        <v>0.003447926447366859</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02228643952712952</v>
+        <v>0.02090044915442231</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1920,19 +1920,19 @@
         <v>12995</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6698</v>
+        <v>6374</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22156</v>
+        <v>21879</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01199229864130275</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006180908407995853</v>
+        <v>0.005882076080102424</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02044653487637836</v>
+        <v>0.02019123060884101</v>
       </c>
     </row>
     <row r="21">
@@ -2024,19 +2024,19 @@
         <v>1155533</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1099861</v>
+        <v>1103909</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1213900</v>
+        <v>1208750</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3521640263987414</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3351972060845908</v>
+        <v>0.3364307934079416</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3699521699061251</v>
+        <v>0.3683826116295995</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1410</v>
@@ -2045,19 +2045,19 @@
         <v>1487652</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1426129</v>
+        <v>1427241</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1545785</v>
+        <v>1547217</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4320549822943033</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4141870462755813</v>
+        <v>0.414510060440536</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4489384478908563</v>
+        <v>0.4493544110991436</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2503</v>
@@ -2066,19 +2066,19 @@
         <v>2643185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2554908</v>
+        <v>2558047</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2719061</v>
+        <v>2719118</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3930716275375379</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3799438493583198</v>
+        <v>0.3804106942004442</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4043552665286527</v>
+        <v>0.4043636673996364</v>
       </c>
     </row>
     <row r="23">
@@ -2095,19 +2095,19 @@
         <v>985963</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>933898</v>
+        <v>934181</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1037180</v>
+        <v>1037824</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3004851570816269</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.284617824368622</v>
+        <v>0.2847041294724432</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3160941553237714</v>
+        <v>0.3162907102122796</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1070</v>
@@ -2116,19 +2116,19 @@
         <v>1129885</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1073000</v>
+        <v>1073621</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1188007</v>
+        <v>1181832</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.32814977502857</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3116287278327629</v>
+        <v>0.3118091450602923</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3450298602886871</v>
+        <v>0.3432364773216878</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2015</v>
@@ -2137,19 +2137,19 @@
         <v>2115848</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2035922</v>
+        <v>2034357</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2193142</v>
+        <v>2187956</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3146506298056002</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3027647065680651</v>
+        <v>0.3025320313501081</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3261451203827559</v>
+        <v>0.3253738519309154</v>
       </c>
     </row>
     <row r="24">
@@ -2166,19 +2166,19 @@
         <v>799617</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>749164</v>
+        <v>747430</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>846288</v>
+        <v>847162</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.243693829881893</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2283176875757896</v>
+        <v>0.2277892309067025</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2579174351523177</v>
+        <v>0.2581837554927044</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>604</v>
@@ -2187,19 +2187,19 @@
         <v>639263</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>595719</v>
+        <v>596740</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>691254</v>
+        <v>691110</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1856595429993131</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1730131611228225</v>
+        <v>0.1733098443137141</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2007592626754611</v>
+        <v>0.2007173080006011</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1364</v>
@@ -2208,19 +2208,19 @@
         <v>1438880</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1365343</v>
+        <v>1375949</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1499807</v>
+        <v>1508792</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2139777821321257</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2030419776733517</v>
+        <v>0.2046192504181247</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2230384076331645</v>
+        <v>0.2243744392920682</v>
       </c>
     </row>
     <row r="25">
@@ -2237,19 +2237,19 @@
         <v>97596</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>78268</v>
+        <v>79263</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>120481</v>
+        <v>119402</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02974375101781601</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02385330625669389</v>
+        <v>0.02415644344921952</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03671831106850326</v>
+        <v>0.03638935387353593</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -2258,19 +2258,19 @@
         <v>62807</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46809</v>
+        <v>47156</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>82147</v>
+        <v>82879</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01824099869482795</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01359455356129528</v>
+        <v>0.01369533977788055</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02385788847593914</v>
+        <v>0.02407038828984132</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>147</v>
@@ -2279,19 +2279,19 @@
         <v>160404</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>138259</v>
+        <v>135199</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>190219</v>
+        <v>187716</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02385384772710698</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02056063747793522</v>
+        <v>0.02010557508366239</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02828775771263639</v>
+        <v>0.02791556474091699</v>
       </c>
     </row>
     <row r="26">
@@ -2308,19 +2308,19 @@
         <v>242527</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>212665</v>
+        <v>209558</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>274335</v>
+        <v>273805</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0739132356199227</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06481249140467332</v>
+        <v>0.06386559085390005</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08360719096517986</v>
+        <v>0.08344553893146103</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>110</v>
@@ -2329,19 +2329,19 @@
         <v>123593</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101772</v>
+        <v>101667</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>147695</v>
+        <v>146140</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03589470098298571</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02955744859178047</v>
+        <v>0.02952687541569042</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04289465909660024</v>
+        <v>0.04244307550332586</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>340</v>
@@ -2350,19 +2350,19 @@
         <v>366119</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>329297</v>
+        <v>328040</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>405697</v>
+        <v>402990</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0544461127976292</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04897014526831499</v>
+        <v>0.04878324399170843</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06033175183849928</v>
+        <v>0.05992924004224946</v>
       </c>
     </row>
     <row r="27">
@@ -2693,19 +2693,19 @@
         <v>56283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42891</v>
+        <v>41954</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72499</v>
+        <v>72708</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09877774694339629</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07527419041473485</v>
+        <v>0.07363003911659938</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.127238458579863</v>
+        <v>0.1276039396943265</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>235</v>
@@ -2714,19 +2714,19 @@
         <v>144464</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>128870</v>
+        <v>128007</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164072</v>
+        <v>162535</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1794085622582189</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1600430824540107</v>
+        <v>0.158970821439695</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2037591171016645</v>
+        <v>0.2018510106301673</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>292</v>
@@ -2735,19 +2735,19 @@
         <v>200747</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>179980</v>
+        <v>178359</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>225614</v>
+        <v>223694</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1459960111044571</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1308934652488676</v>
+        <v>0.1297142305053021</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1640809782681565</v>
+        <v>0.1626844464174556</v>
       </c>
     </row>
     <row r="5">
@@ -2764,19 +2764,19 @@
         <v>242936</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>220607</v>
+        <v>219786</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>266603</v>
+        <v>265278</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4263597922420688</v>
+        <v>0.4263597922420687</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3871702997829346</v>
+        <v>0.3857300651190242</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4678955554509474</v>
+        <v>0.4655701190672085</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>635</v>
@@ -2785,19 +2785,19 @@
         <v>377436</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>355261</v>
+        <v>356058</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>400002</v>
+        <v>397424</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4687348949697277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4411958701623458</v>
+        <v>0.4421851691185721</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4967589342535486</v>
+        <v>0.4935575353410804</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>909</v>
@@ -2806,19 +2806,19 @@
         <v>620373</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>589488</v>
+        <v>588627</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>653586</v>
+        <v>650985</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4511751036913487</v>
+        <v>0.4511751036913486</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4287138945741558</v>
+        <v>0.4280877227975546</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4753303093158064</v>
+        <v>0.4734384587549014</v>
       </c>
     </row>
     <row r="6">
@@ -2835,19 +2835,19 @@
         <v>186045</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>164037</v>
+        <v>165095</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>209127</v>
+        <v>206693</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3265144993260151</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2878900542736503</v>
+        <v>0.2897454042030683</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3670230651277854</v>
+        <v>0.362751252688003</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>383</v>
@@ -2856,19 +2856,19 @@
         <v>206504</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>186803</v>
+        <v>187153</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>224342</v>
+        <v>226221</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2564553470428098</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2319886247592064</v>
+        <v>0.2324241806290304</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2786085980492252</v>
+        <v>0.2809417740168489</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>619</v>
@@ -2877,19 +2877,19 @@
         <v>392549</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>364744</v>
+        <v>363682</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>421098</v>
+        <v>421844</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2854871136237618</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2652653759173842</v>
+        <v>0.2644932340341539</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3062499373983223</v>
+        <v>0.3067919466656096</v>
       </c>
     </row>
     <row r="7">
@@ -2906,19 +2906,19 @@
         <v>31512</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22922</v>
+        <v>22290</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42828</v>
+        <v>43128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0553038504395692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04022921195698242</v>
+        <v>0.03911908803732703</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07516421380963854</v>
+        <v>0.07569104937234757</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -2927,19 +2927,19 @@
         <v>28022</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20885</v>
+        <v>20832</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37816</v>
+        <v>38117</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03480083806143279</v>
+        <v>0.03480083806143278</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02593707095103312</v>
+        <v>0.02587158592267467</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04696277313852762</v>
+        <v>0.04733738985463289</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -2948,19 +2948,19 @@
         <v>59534</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48425</v>
+        <v>47937</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75137</v>
+        <v>73519</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04329706803524476</v>
+        <v>0.04329706803524477</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03521746629581829</v>
+        <v>0.03486309696957279</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05464420603362567</v>
+        <v>0.05346763899661565</v>
       </c>
     </row>
     <row r="8">
@@ -2977,19 +2977,19 @@
         <v>53016</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>41089</v>
+        <v>40671</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>66995</v>
+        <v>64955</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09304411104895062</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07211277789371862</v>
+        <v>0.0713781281214081</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1175775039278518</v>
+        <v>0.113997031628804</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>95</v>
@@ -2998,19 +2998,19 @@
         <v>48797</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>39422</v>
+        <v>39223</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59311</v>
+        <v>59682</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06060035766781083</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04895744687180353</v>
+        <v>0.04871033028749439</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07365834358369362</v>
+        <v>0.074118047432206</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>168</v>
@@ -3019,19 +3019,19 @@
         <v>101813</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>87716</v>
+        <v>86459</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>119668</v>
+        <v>117979</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07404470354518762</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06379270373455187</v>
+        <v>0.06287831952512482</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08703040184665484</v>
+        <v>0.08580219528142938</v>
       </c>
     </row>
     <row r="9">
@@ -3123,19 +3123,19 @@
         <v>495611</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>452057</v>
+        <v>447864</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>549961</v>
+        <v>546223</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2230078424188729</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2034099696853167</v>
+        <v>0.2015232535784344</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2474631940328396</v>
+        <v>0.2457812287810891</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>890</v>
@@ -3144,19 +3144,19 @@
         <v>695238</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>653594</v>
+        <v>651724</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>735820</v>
+        <v>741143</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3208491796536851</v>
+        <v>0.3208491796536852</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3016305049255857</v>
+        <v>0.3007672741894856</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3395773896544456</v>
+        <v>0.3420340592705298</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1297</v>
@@ -3165,19 +3165,19 @@
         <v>1190850</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1127537</v>
+        <v>1121489</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1252293</v>
+        <v>1247732</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.271309670014399</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2568851043162263</v>
+        <v>0.255507256397395</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2853080992322383</v>
+        <v>0.2842690073669146</v>
       </c>
     </row>
     <row r="11">
@@ -3194,19 +3194,19 @@
         <v>1215379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1155854</v>
+        <v>1160654</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1268661</v>
+        <v>1268226</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5468783022761936</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5200939415276398</v>
+        <v>0.5222539704433782</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5708531304229314</v>
+        <v>0.5706574404698217</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1612</v>
@@ -3215,19 +3215,19 @@
         <v>1190008</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1147166</v>
+        <v>1145800</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1230348</v>
+        <v>1236743</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5491827593172544</v>
+        <v>0.5491827593172545</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5294113929285977</v>
+        <v>0.5287811827715748</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5677994286511215</v>
+        <v>0.5707507724205833</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2688</v>
@@ -3236,19 +3236,19 @@
         <v>2405387</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2340292</v>
+        <v>2342671</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2474675</v>
+        <v>2475529</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5480159552339764</v>
+        <v>0.5480159552339765</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5331855878776594</v>
+        <v>0.5337275287438816</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5638019100592025</v>
+        <v>0.5639963891135954</v>
       </c>
     </row>
     <row r="12">
@@ -3265,19 +3265,19 @@
         <v>437238</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>395834</v>
+        <v>395552</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>478172</v>
+        <v>478608</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1967418287853588</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1781117486091542</v>
+        <v>0.1779848415832548</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2151609903998599</v>
+        <v>0.2153568397832421</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>353</v>
@@ -3286,19 +3286,19 @@
         <v>239969</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>214514</v>
+        <v>215710</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>266888</v>
+        <v>265454</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1107446017416132</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09899738359288997</v>
+        <v>0.09954932412866206</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1231673628285727</v>
+        <v>0.1225057469394793</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>778</v>
@@ -3310,16 +3310,16 @@
         <v>629426</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>730447</v>
+        <v>729956</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1542871429464741</v>
+        <v>0.1542871429464742</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1434012413204411</v>
+        <v>0.1434013342919374</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1664167036246002</v>
+        <v>0.166304891751644</v>
       </c>
     </row>
     <row r="13">
@@ -3336,19 +3336,19 @@
         <v>18479</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10965</v>
+        <v>11120</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29054</v>
+        <v>29530</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00831502980051552</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004933899800607181</v>
+        <v>0.00500355487682496</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01307322126184123</v>
+        <v>0.01328750364006106</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -3357,19 +3357,19 @@
         <v>12784</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7505</v>
+        <v>7199</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20616</v>
+        <v>20426</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.005899894010009231</v>
+        <v>0.005899894010009232</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003463496714675784</v>
+        <v>0.003322425675674094</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009514189755131325</v>
+        <v>0.009426683070984253</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -3378,19 +3378,19 @@
         <v>31264</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21652</v>
+        <v>21302</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44001</v>
+        <v>43727</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.007122737504950765</v>
+        <v>0.007122737504950767</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004933028779783063</v>
+        <v>0.004853214441744642</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01002466637722757</v>
+        <v>0.009962212558658421</v>
       </c>
     </row>
     <row r="14">
@@ -3407,19 +3407,19 @@
         <v>55687</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42080</v>
+        <v>42187</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>73019</v>
+        <v>72631</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02505699671905916</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01893439969451598</v>
+        <v>0.01898255376025661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03285581157676832</v>
+        <v>0.03268161367004824</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>41</v>
@@ -3428,19 +3428,19 @@
         <v>28870</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21544</v>
+        <v>21093</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40727</v>
+        <v>39704</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01332356527743812</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009942436328375151</v>
+        <v>0.009734311512215123</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01879523141306674</v>
+        <v>0.01832306248598494</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>96</v>
@@ -3449,19 +3449,19 @@
         <v>84557</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>67208</v>
+        <v>68413</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>102543</v>
+        <v>103345</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.01926449430019958</v>
+        <v>0.01926449430019959</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01531184648466296</v>
+        <v>0.01558639839905159</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02336229857609898</v>
+        <v>0.02354498405628243</v>
       </c>
     </row>
     <row r="15">
@@ -3553,19 +3553,19 @@
         <v>264187</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>234031</v>
+        <v>238495</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>291913</v>
+        <v>292808</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.371644296440331</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3292220921163654</v>
+        <v>0.3355012760883772</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4106468744845515</v>
+        <v>0.4119061738957291</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>444</v>
@@ -3574,19 +3574,19 @@
         <v>337520</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>313339</v>
+        <v>314646</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>361542</v>
+        <v>362016</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4596459264942099</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4267143866690654</v>
+        <v>0.42849477580527</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4923587886342401</v>
+        <v>0.493004617673571</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>689</v>
@@ -3595,19 +3595,19 @@
         <v>601708</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>565661</v>
+        <v>567914</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>639749</v>
+        <v>643299</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4163589220735376</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3914158110051086</v>
+        <v>0.3929749799443411</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4426822547440718</v>
+        <v>0.4451386722403766</v>
       </c>
     </row>
     <row r="17">
@@ -3624,19 +3624,19 @@
         <v>343852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>311544</v>
+        <v>316653</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>371111</v>
+        <v>372413</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4837114629284855</v>
+        <v>0.4837114629284854</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4382622270763051</v>
+        <v>0.4454500467074061</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5220581239148318</v>
+        <v>0.5238897814850686</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>479</v>
@@ -3645,19 +3645,19 @@
         <v>341185</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>316640</v>
+        <v>316775</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>366954</v>
+        <v>363039</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4646366952960275</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4312108458233496</v>
+        <v>0.4313940928989337</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4997299003051319</v>
+        <v>0.4943986174118266</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>816</v>
@@ -3666,19 +3666,19 @@
         <v>685037</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>646182</v>
+        <v>644433</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>721405</v>
+        <v>718169</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4740193573026743</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4471336997873119</v>
+        <v>0.4459233670241227</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4991845572645014</v>
+        <v>0.4969459922115459</v>
       </c>
     </row>
     <row r="18">
@@ -3695,19 +3695,19 @@
         <v>98678</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>79457</v>
+        <v>78771</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>121886</v>
+        <v>119344</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1388141779258187</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1117751740511397</v>
+        <v>0.110810565628837</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1714624566056056</v>
+        <v>0.1678861901507109</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>73</v>
@@ -3716,19 +3716,19 @@
         <v>51116</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38698</v>
+        <v>39424</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63807</v>
+        <v>65525</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06961149005408095</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0527003441892745</v>
+        <v>0.05368946882067589</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08689494849959593</v>
+        <v>0.08923360030333446</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>167</v>
@@ -3737,19 +3737,19 @@
         <v>149794</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>128957</v>
+        <v>126787</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>177652</v>
+        <v>174025</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1036515078809358</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08923355970496237</v>
+        <v>0.08773200911671671</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1229284188748508</v>
+        <v>0.1204184630486401</v>
       </c>
     </row>
     <row r="19">
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6469</v>
+        <v>7850</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002692957992022495</v>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.009100153222772517</v>
+        <v>0.0110434918192578</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -3787,19 +3787,19 @@
         <v>2361</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5938</v>
+        <v>5714</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003215951420003614</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0008295025341682776</v>
+        <v>0.0008245349475982448</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0080865341013354</v>
+        <v>0.007781228764978357</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -3808,19 +3808,19 @@
         <v>4276</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1820</v>
+        <v>1737</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9590</v>
+        <v>9284</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002958696880341785</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00125910945619733</v>
+        <v>0.001201852639412523</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.006635882347589403</v>
+        <v>0.006423978810833012</v>
       </c>
     </row>
     <row r="20">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9000</v>
+        <v>9242</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003137104713342172</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01266047103189522</v>
+        <v>0.01300148143941226</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -3864,13 +3864,13 @@
         <v>6640</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.002889936735677944</v>
+        <v>0.002889936735677945</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0006491955806968131</v>
+        <v>0.0006495753834071089</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.009042752309003067</v>
+        <v>0.009042317116832059</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -3879,19 +3879,19 @@
         <v>4352</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1306</v>
+        <v>1435</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11573</v>
+        <v>11088</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00301151586251059</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0009034090828463719</v>
+        <v>0.0009931887292316387</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008008293576627818</v>
+        <v>0.007672428455478796</v>
       </c>
     </row>
     <row r="21">
@@ -3983,19 +3983,19 @@
         <v>816081</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>756560</v>
+        <v>762803</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>879095</v>
+        <v>878170</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2329633320705651</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2159720301620513</v>
+        <v>0.2177542117331102</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.250951515681144</v>
+        <v>0.2506874768509316</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1569</v>
@@ -4004,19 +4004,19 @@
         <v>1177223</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1127734</v>
+        <v>1126171</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1231364</v>
+        <v>1228162</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3176190503571197</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3042669248551918</v>
+        <v>0.3038452537000138</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3322264898171784</v>
+        <v>0.331362626969386</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2278</v>
@@ -4025,19 +4025,19 @@
         <v>1993304</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1917129</v>
+        <v>1915226</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2069218</v>
+        <v>2075624</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.276485108425177</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2659191652524935</v>
+        <v>0.2656550950559456</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2870148588145748</v>
+        <v>0.2879035012388653</v>
       </c>
     </row>
     <row r="23">
@@ -4054,19 +4054,19 @@
         <v>1802167</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1729135</v>
+        <v>1737029</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1866645</v>
+        <v>1872633</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5144570185713448</v>
+        <v>0.5144570185713447</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.493608913481391</v>
+        <v>0.4958625863682178</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5328633602960412</v>
+        <v>0.5345726714524277</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2726</v>
@@ -4075,19 +4075,19 @@
         <v>1908629</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1850287</v>
+        <v>1851978</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1962858</v>
+        <v>1961092</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5149551654456086</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4992144075358556</v>
+        <v>0.4996704494721122</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5295863575147347</v>
+        <v>0.529109853085422</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4413</v>
@@ -4096,19 +4096,19 @@
         <v>3710795</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3627850</v>
+        <v>3619576</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3803077</v>
+        <v>3796071</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5147131174775058</v>
+        <v>0.5147131174775057</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5032079673903687</v>
+        <v>0.5020604083464977</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5275132757713501</v>
+        <v>0.5265414902072313</v>
       </c>
     </row>
     <row r="24">
@@ -4125,19 +4125,19 @@
         <v>721961</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>673984</v>
+        <v>675719</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>777641</v>
+        <v>774585</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2060950855497978</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1923994312944785</v>
+        <v>0.1928946211193369</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2219900844210301</v>
+        <v>0.2211176726124115</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>809</v>
@@ -4146,19 +4146,19 @@
         <v>497589</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>464499</v>
+        <v>465402</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>539028</v>
+        <v>535164</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1342513701923769</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1253234369604237</v>
+        <v>0.1255672855562994</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1454317258596188</v>
+        <v>0.1443893148373532</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1564</v>
@@ -4167,19 +4167,19 @@
         <v>1219550</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1156677</v>
+        <v>1157346</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1282608</v>
+        <v>1286743</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.169160001003162</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1604391515060287</v>
+        <v>0.160531968354968</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1779066127822039</v>
+        <v>0.1784801500399897</v>
       </c>
     </row>
     <row r="25">
@@ -4196,19 +4196,19 @@
         <v>51905</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39768</v>
+        <v>40045</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>67916</v>
+        <v>68453</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01481717805653293</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01135252792287575</v>
+        <v>0.01143141420349182</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01938764658807968</v>
+        <v>0.01954096277890643</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -4217,19 +4217,19 @@
         <v>43168</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33059</v>
+        <v>34065</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55081</v>
+        <v>56443</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01164695114292684</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008919538924290968</v>
+        <v>0.009190893202762455</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01486098369556187</v>
+        <v>0.01522850737077301</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>131</v>
@@ -4238,19 +4238,19 @@
         <v>95073</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>80925</v>
+        <v>78728</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>115857</v>
+        <v>112273</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.01318735422986239</v>
+        <v>0.01318735422986238</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01122492075458705</v>
+        <v>0.01092017006492465</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01607017673036098</v>
+        <v>0.01557304389179031</v>
       </c>
     </row>
     <row r="26">
@@ -4267,19 +4267,19 @@
         <v>110932</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>93793</v>
+        <v>91219</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>133072</v>
+        <v>132214</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03166738575175942</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0267746449248358</v>
+        <v>0.02603978563006904</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03798754155121908</v>
+        <v>0.0377425377714988</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>139</v>
@@ -4288,19 +4288,19 @@
         <v>79789</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>67705</v>
+        <v>67491</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>95555</v>
+        <v>93605</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02152746286196805</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01826706416946563</v>
+        <v>0.01820930756155357</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02578101348860631</v>
+        <v>0.02525494943705352</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>269</v>
@@ -4309,19 +4309,19 @@
         <v>190722</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>168754</v>
+        <v>166468</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>218697</v>
+        <v>214066</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02645441886429281</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02340741634754757</v>
+        <v>0.02309029969808496</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03033475502958124</v>
+        <v>0.02969238555607212</v>
       </c>
     </row>
     <row r="27">
